--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,11 +241,11 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
@@ -202,45 +253,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26528558955975495</v>
+        <v>0.28065104601029489</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.26355512788546004</v>
+        <v>0.29874339719721282</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0021571747665895444</v>
+        <v>0.0026275856430242875</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00056681330401263245</v>
+        <v>0.0014258307813590652</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0027821220913355369</v>
+        <v>0.0013105236324631986</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00042702376957343477</v>
+        <v>0.00098263665740082589</v>
       </c>
       <c r="H3" s="0">
-        <v>1.3723540902849096e-05</v>
+        <v>-9.2775578417227288e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-7.2567325225666166e-05</v>
+        <v>-0.00048999626027333753</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.9476901454247333e-05</v>
+        <v>0.00047395028266944417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30895655778682451</v>
+        <v>0.38479727604841291</v>
       </c>
       <c r="C4" s="0">
-        <v>0.023955320688187499</v>
+        <v>0.053889086734521557</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00024966156491691081</v>
+        <v>-4.629444607496037e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00026587812215777667</v>
+        <v>-1.4127388037332344e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-4.1671063804323275e-06</v>
+        <v>0.00046820258468735357</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00035411186917743819</v>
+        <v>-0.0037477176633198021</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00066779173802434275</v>
+        <v>0.0031744241999277566</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0021470468190165071</v>
+        <v>-0.0020280586086206531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31259763650068717</v>
+        <v>0.37259765339111584</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0057559513426280384</v>
+        <v>-0.00066439599030669475</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00054255157458971538</v>
+        <v>-0.00024837836398691304</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0020191156586541912</v>
+        <v>0.0097909129909326507</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00047763361484212604</v>
+        <v>-0.0019837507965679469</v>
       </c>
       <c r="H5" s="0">
-        <v>3.2238770456122511e-05</v>
+        <v>0.00060866248784145489</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0005942407961385854</v>
+        <v>-0.00074744182122994077</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.003938964302814818</v>
+        <v>-0.019197580537502534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.33124341093142928</v>
+        <v>0.27181800583034171</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.016327499306147599</v>
+        <v>-0.030999586667594219</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.1943049063826911e-05</v>
+        <v>-0.0010196349353219615</v>
       </c>
       <c r="F6" s="0">
-        <v>1.3604118704259273e-05</v>
+        <v>0.00059424081433660022</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010558098753976996</v>
+        <v>0.0011609445355531627</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0007625314792231373</v>
+        <v>-0.010549455370754916</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0058325973118635299</v>
+        <v>2.730309716314494e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.34165074085703373</v>
+        <v>0.25266098949194038</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0031840212636557088</v>
+        <v>-0.030496042536245997</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0022372127052233295</v>
+        <v>-0.0014820240562763538</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0034323695530976317</v>
+        <v>0.007463536253667951</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00015216263428667479</v>
+        <v>0.0020777276731186963</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.4035723630575309e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-3.4925995639264287e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0029373742680851023</v>
+        <v>-0.0026969537486006834</v>
       </c>
     </row>
     <row r="8">
